--- a/TLMPortMapPlot/2024-07-01_17-16-37_MCR1_Rig1_cal_QR00169_1_20_3820_Bias_0_Override_7_29.50_45C/analysis/RFA phase, N = 1.xlsx
+++ b/TLMPortMapPlot/2024-07-01_17-16-37_MCR1_Rig1_cal_QR00169_1_20_3820_Bias_0_Override_7_29.50_45C/analysis/RFA phase, N = 1.xlsx
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>99.40705531447861</v>
+        <v>99.4070553144786</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>182.2023149262715</v>
+        <v>182.2023149262716</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>105.4241168559801</v>
+        <v>105.4241168559802</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>290.9131131114538</v>
+        <v>290.9131131114537</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>207.252072103509</v>
+        <v>207.2520721035091</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>46.81892496442246</v>
+        <v>46.81892496442247</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>196.9998456776278</v>
+        <v>196.9998456776277</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>97.85443973193449</v>
+        <v>97.85443973193448</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="D163" t="n">
-        <v>270.4162524629115</v>
+        <v>270.4162524629116</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>117.4024010756121</v>
+        <v>117.4024010756122</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -3698,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>93.18056627762117</v>
+        <v>93.18056627762115</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>93.07043101482971</v>
+        <v>93.07043101482972</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="D207" t="n">
-        <v>91.76801294199585</v>
+        <v>91.76801294199583</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>2</v>
       </c>
       <c r="D215" t="n">
-        <v>334.8800593159211</v>
+        <v>334.8800593159212</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
@@ -4591,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="D219" t="n">
-        <v>90.35593951812675</v>
+        <v>90.35593951812676</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="D222" t="n">
-        <v>94.60923756729635</v>
+        <v>94.60923756729636</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>2</v>
       </c>
       <c r="D231" t="n">
-        <v>251.1004842318991</v>
+        <v>251.1004842318992</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -4876,7 +4876,7 @@
         <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>358.5293209211475</v>
+        <v>358.5293209211476</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="D264" t="n">
-        <v>210.9749641337967</v>
+        <v>210.9749641337968</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>2</v>
       </c>
       <c r="D275" t="n">
-        <v>96.95040263994811</v>
+        <v>96.95040263994812</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>2</v>
       </c>
       <c r="D286" t="n">
-        <v>138.9952758045829</v>
+        <v>138.995275804583</v>
       </c>
       <c r="E286" t="n">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>2</v>
       </c>
       <c r="D303" t="n">
-        <v>239.7309586525311</v>
+        <v>239.730958652531</v>
       </c>
       <c r="E303" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="D316" t="n">
-        <v>62.21478398087203</v>
+        <v>62.21478398087204</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>3</v>
       </c>
       <c r="D330" t="n">
-        <v>121.0640515452121</v>
+        <v>121.064051545212</v>
       </c>
       <c r="E330" t="n">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="D335" t="n">
-        <v>257.3751189796614</v>
+        <v>257.3751189796613</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>3</v>
       </c>
       <c r="D342" t="n">
-        <v>188.4313568363895</v>
+        <v>188.4313568363896</v>
       </c>
       <c r="E342" t="n">
         <v>0</v>
@@ -7175,7 +7175,7 @@
         <v>3</v>
       </c>
       <c r="D355" t="n">
-        <v>23.47576158856931</v>
+        <v>23.47576158856932</v>
       </c>
       <c r="E355" t="n">
         <v>0</v>
@@ -7764,7 +7764,7 @@
         <v>3</v>
       </c>
       <c r="D386" t="n">
-        <v>21.35328612238807</v>
+        <v>21.35328612238808</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>3</v>
       </c>
       <c r="D403" t="n">
-        <v>222.8078316956526</v>
+        <v>222.8078316956527</v>
       </c>
       <c r="E403" t="n">
         <v>0</v>
@@ -8334,7 +8334,7 @@
         <v>3</v>
       </c>
       <c r="D416" t="n">
-        <v>236.4699672327639</v>
+        <v>236.469967232764</v>
       </c>
       <c r="E416" t="n">
         <v>0</v>
@@ -8486,7 +8486,7 @@
         <v>3</v>
       </c>
       <c r="D424" t="n">
-        <v>13.47250372721371</v>
+        <v>13.47250372721372</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
@@ -8714,7 +8714,7 @@
         <v>3</v>
       </c>
       <c r="D436" t="n">
-        <v>9.577838116863937</v>
+        <v>9.577838116863935</v>
       </c>
       <c r="E436" t="n">
         <v>0</v>
